--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_401.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_401.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33260-d119927-Reviews-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Hotel-39-Westminster.h855353.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_401.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_401.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1256 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r487762711-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>33260</t>
+  </si>
+  <si>
+    <t>119927</t>
+  </si>
+  <si>
+    <t>487762711</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>clean  lobby  and  rooms  friendly staff  some  common  area  needs  to  be  steam cleaned  will  be  back..</t>
+  </si>
+  <si>
+    <t>1 st  floor  room  was  convenient   good  elevator  good  breakfast  good  parking   and  felt  very  secure  also  room  was  very  large  spacy  also   the  staff  was   helpful  and  always  friendly  I  had  a  very  bad  experience  with  the  best  western  on  Westminster  blv  will  never  recommend  that  hotel  ever  ......MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>super8westminster1, Webmaster at Hotel 39 Westminster, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>1 st  floor  room  was  convenient   good  elevator  good  breakfast  good  parking   and  felt  very  secure  also  room  was  very  large  spacy  also   the  staff  was   helpful  and  always  friendly  I  had  a  very  bad  experience  with  the  best  western  on  Westminster  blv  will  never  recommend  that  hotel  ever  ......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r463596344-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>463596344</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>super8westminster, Webmaster at Hotel 39 Westminster, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r462991321-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>462991321</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>super8westminster, Webmaster at Hotel 39 Westminster, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r462271116-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>462271116</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r459706944-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>459706944</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Jay at the front desk was very helpful. We got there early...</t>
+  </si>
+  <si>
+    <t>Jay at the front desk was very helpful. We got there early and he found us a room that was perfect with space for handicapped access. For a free breakfast it was wonderful with waffles cereals fruit toast danishes coffee tea and oatmealMoreShow less</t>
+  </si>
+  <si>
+    <t>super8westminster, webmaster at Hotel 39 Westminster, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Jay at the front desk was very helpful. We got there early and he found us a room that was perfect with space for handicapped access. For a free breakfast it was wonderful with waffles cereals fruit toast danishes coffee tea and oatmealMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r457926968-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>457926968</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Close to 405 and restaurants.Immediate location leaves a lot to be desired-strip bar and liquor store.Although room was private, quiet and pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>super8westminster, Webmaster at Hotel 39 Westminster, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Close to 405 and restaurants.Immediate location leaves a lot to be desired-strip bar and liquor store.Although room was private, quiet and pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r438604106-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>438604106</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>My Sister and my  brother was with me, we needed an overnight stay it was a last minute booking that I booked on my iPhone.We  arrived late at night almost midnight.*Front desk employees was friendly, *The out side has a couple of planters unattended needs help with unkept dying plants. *The  surrounding is not inviting needs to create garden like atmosphere.*Room is clean and spacious . I just booked 5 rooms for 2 nights stay, we on a road trip to pay our respect to family member just past.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>super8westminster1, Webmaster at Hotel 39 Westminster, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>My Sister and my  brother was with me, we needed an overnight stay it was a last minute booking that I booked on my iPhone.We  arrived late at night almost midnight.*Front desk employees was friendly, *The out side has a couple of planters unattended needs help with unkept dying plants. *The  surrounding is not inviting needs to create garden like atmosphere.*Room is clean and spacious . I just booked 5 rooms for 2 nights stay, we on a road trip to pay our respect to family member just past.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r436070854-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>436070854</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super 8 Westminster Cali </t>
+  </si>
+  <si>
+    <t>Amazing stay. Jason and Dave was amazing people had a chat in the mornings before I went to work. They was both excellent with customer service. Thank you for the amazing stay I will head back to the uk and recommend tho place. It's affordable and comfortable and clean rooms daily. Thank you Super8 MoreShow less</t>
+  </si>
+  <si>
+    <t>super8westminster1, Webmaster at Hotel 39 Westminster, responded to this reviewResponded November 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2016</t>
+  </si>
+  <si>
+    <t>Amazing stay. Jason and Dave was amazing people had a chat in the mornings before I went to work. They was both excellent with customer service. Thank you for the amazing stay I will head back to the uk and recommend tho place. It's affordable and comfortable and clean rooms daily. Thank you Super8 More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r435999575-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>435999575</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r431028692-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>431028692</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>BEAUTIFUL HOTEL</t>
+  </si>
+  <si>
+    <t>I was really impressed with this hotel.  Clean, smoke-free, conveniently located.  Friendly staff.  In room microwave, fridge and coffee maker.  My new favorite.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>super8westminster1, Webmaster at Hotel 39 Westminster, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>I was really impressed with this hotel.  Clean, smoke-free, conveniently located.  Friendly staff.  In room microwave, fridge and coffee maker.  My new favorite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r427050825-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>427050825</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>super8westminster1, Webmaster at Hotel 39 Westminster, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r423963058-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>423963058</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>super8westminster1, Webmaster at Hotel 39 Westminster, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r401719710-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>401719710</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Worth stopping</t>
+  </si>
+  <si>
+    <t>Obviously family run.  Stayed 3 nights for location and price.  Clean updated room, asked for extra towels and delivered in two minutes. Standard breakfast and super friendly staff.  next to freeway and old strip mall- better than it looked driving by at 45mph. Teeny pool but not there to swim 5 stars as clean, kind and can't be beat at priceMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>super8westminster1, Webmaster at Hotel 39 Westminster, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Obviously family run.  Stayed 3 nights for location and price.  Clean updated room, asked for extra towels and delivered in two minutes. Standard breakfast and super friendly staff.  next to freeway and old strip mall- better than it looked driving by at 45mph. Teeny pool but not there to swim 5 stars as clean, kind and can't be beat at priceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r394338619-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>394338619</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Very shady place!</t>
+  </si>
+  <si>
+    <t>Horrific employees, creepy feel, bad element of people surrounding the place, the pool is more like a dirty jacuzzi, and we got locked out of our bathroom several times, due to a broken lock. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Horrific employees, creepy feel, bad element of people surrounding the place, the pool is more like a dirty jacuzzi, and we got locked out of our bathroom several times, due to a broken lock. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r389421365-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>389421365</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>OK at best</t>
+  </si>
+  <si>
+    <t>This place was just ok, we only stayed here because the value was good.  The room is what you'd expect from any motel, just clean and comfortable enough to sleep in, but not to spend a day lounging in.  The grounds aren't great, and the pool was filthy.  The area also isn't the safest, so don't leave your belongings in the car.In the end, though, I'd only stay here again if I was able to get a really good deal.  Otherwise, best to spend a few extra bucks and stay somewhere nicer up the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>super8westminster, Webmaster at Hotel 39 Westminster, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>This place was just ok, we only stayed here because the value was good.  The room is what you'd expect from any motel, just clean and comfortable enough to sleep in, but not to spend a day lounging in.  The grounds aren't great, and the pool was filthy.  The area also isn't the safest, so don't leave your belongings in the car.In the end, though, I'd only stay here again if I was able to get a really good deal.  Otherwise, best to spend a few extra bucks and stay somewhere nicer up the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r381001339-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>381001339</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>super8westminster1, Webmaster at Hotel 39 Westminster, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r379210598-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>379210598</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Super 8 Westminster</t>
+  </si>
+  <si>
+    <t>Older but clean hotel.  Located in a high traffic area with plenty of near by restaurants.  Not the best part of town but seemed safe.  Their beds were excellent and room was very clean.  Good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Older but clean hotel.  Located in a high traffic area with plenty of near by restaurants.  Not the best part of town but seemed safe.  Their beds were excellent and room was very clean.  Good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r378558636-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>378558636</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r371600069-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>371600069</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Good short stay</t>
+  </si>
+  <si>
+    <t>This was a good place to stay for a short visit. First of all, after a long flight I got to the hotel about 4 hours before check in.  I asked if I could check in early, but was told that the room wasn't ready yet.  But the front desk person, I forgot the guy's name, but the was very helpful, said I could precheck in, give him my contact number and when the room was available would call me.  I was very pleased when about 45 minutes later, he called me to say the room was ready and I could come in.  The entire stay was good, room was good, service was good.  The staff was friendly every morning making the stay enjoyable.  In this case hats off to that guy at the front desk, he should be commended for his customer service, unfortunately I forgot his name, sometimes they say first impressions makes the visit, in this case it did.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This was a good place to stay for a short visit. First of all, after a long flight I got to the hotel about 4 hours before check in.  I asked if I could check in early, but was told that the room wasn't ready yet.  But the front desk person, I forgot the guy's name, but the was very helpful, said I could precheck in, give him my contact number and when the room was available would call me.  I was very pleased when about 45 minutes later, he called me to say the room was ready and I could come in.  The entire stay was good, room was good, service was good.  The staff was friendly every morning making the stay enjoyable.  In this case hats off to that guy at the front desk, he should be commended for his customer service, unfortunately I forgot his name, sometimes they say first impressions makes the visit, in this case it did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r360467557-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>360467557</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Good for a single night with late arrival and early departure</t>
+  </si>
+  <si>
+    <t>Room was not clean.  Clothes from previous guest were on the floor in a corner.  Cleaning rags were left on furniture.  While a non-smoking property, the smell of smoke was prevalent.  Bottom sheet only covered 3/4 of bed.  Requested correct sheets, not done.  We had to remake the bed and better position the sheet to cover more of the bed area. Internet was not reliable.  We were dropped while using the system and had to log in again, even though we had logged in only a short time earlier.Breakfast was only carbs, not even fruit.  Stocking was not regular.  Availability seemed to be random on when someone remembered to restock food items.Front desk personal were friendly.  They were willing to help, but could only do so much. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Room was not clean.  Clothes from previous guest were on the floor in a corner.  Cleaning rags were left on furniture.  While a non-smoking property, the smell of smoke was prevalent.  Bottom sheet only covered 3/4 of bed.  Requested correct sheets, not done.  We had to remake the bed and better position the sheet to cover more of the bed area. Internet was not reliable.  We were dropped while using the system and had to log in again, even though we had logged in only a short time earlier.Breakfast was only carbs, not even fruit.  Stocking was not regular.  Availability seemed to be random on when someone remembered to restock food items.Front desk personal were friendly.  They were willing to help, but could only do so much. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r360211125-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>360211125</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r357167227-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>357167227</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Dirty Room</t>
+  </si>
+  <si>
+    <t>The first room they put us in was totally dirty. It had used water bottles all over the place. The first night we were there something happened in the strip mall that the hotel was in and there were cops and police tape everywhere. Overall, when we got our clean room, it was ok. The staff were excellent but I wouldn't stay there by myself.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r355357087-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>355357087</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r353645405-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>353645405</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r336527475-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>336527475</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>An average super 8</t>
+  </si>
+  <si>
+    <t>This hotel does charge a $100 deposit up front.The rooms were renovated which was nice but the wood floors are cold during the winter months. Those wall heaters are useless at keeping the room at a warm temp. The pillows were old but the bed was alright. Not enough working outlets.TV had a decent channel selection.  On the whole I had a rather quiet stay and had no major issues.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r328842751-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>328842751</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r315869049-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>315869049</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r298144628-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>298144628</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r295354916-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>295354916</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r285632919-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>285632919</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Always a pleasure</t>
+  </si>
+  <si>
+    <t>I travel to Huntington Beach a lot, and it is always a pleasure to stay here. The desk gentleman are always helpful and friendly and help me in anyway they can. Even during the busy times I find they keep things clean and quiet. I always enjoy my stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r272814909-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>272814909</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Elevator not working</t>
+  </si>
+  <si>
+    <t>When I booked this room thru World Mark I wasn't away that the elevator was down.  We checked in at 12:30 a.m. and the night clerk didn't speak clear English and refused to speak into the microphone so I could hear him, he wasn't very friendly, The breakfast was less than desirable, with frozen waffles, and 2 cereal choices. It didn't have a mini fridge, or a microwave, and only 1 ice maker on the very bottom floor, while we were on the 4th floor. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>super8westminster, Webmaster at Hotel 39 Westminster, responded to this reviewResponded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2015</t>
+  </si>
+  <si>
+    <t>When I booked this room thru World Mark I wasn't away that the elevator was down.  We checked in at 12:30 a.m. and the night clerk didn't speak clear English and refused to speak into the microphone so I could hear him, he wasn't very friendly, The breakfast was less than desirable, with frozen waffles, and 2 cereal choices. It didn't have a mini fridge, or a microwave, and only 1 ice maker on the very bottom floor, while we were on the 4th floor. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r269468196-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>269468196</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>ho-hum</t>
+  </si>
+  <si>
+    <t>This property is ok. Very clean but the elevator wasn't working so up 4 flights of stairs. They did refund 1/2 of my nights stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This property is ok. Very clean but the elevator wasn't working so up 4 flights of stairs. They did refund 1/2 of my nights stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r266714432-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>266714432</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r261380138-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>261380138</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Always Excellent At Wyndham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a wonderful time here.  The room was nice, clean and spacious.  I loved the appointments.  Staff were unfailingly courteous and helpful.  Best of all, it was affordable and centrally located.  Cannot wait to stay at the Wyndham on Nob Hill sometime in my lifetime!!!!!!! </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r260917169-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>260917169</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>At this time they are having safety work done on their...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At this time they are having safety work done on their elevator, but they continue to help and work around it and make my stay still enjoyable, </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r260214518-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>260214518</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Kind &amp; helpful innkeeper &amp; staff; more than adequate</t>
+  </si>
+  <si>
+    <t>My bf &amp; I stayed there following a surgery I had at St. Joseph's Hospital in Orange. I was in pain; the innkeeper kindly allowed us to check in early w/ my prescribed service dog. The bed was comfy, it was quiet &amp; we enjoyed a much needed good night's sleep. There was a flat screen TV mounted to the wall that worked great, a frig &amp; microwave, &amp; the A/C worked well, too. The continental breakfast was convenient &amp; sufficient for us. We had raisin bran w/ milk, yogurt, OJ, coffee, &amp; single-packaged raisin danishes which tasted best warmed up in the microwave. The innkeeper also double-checked our google map directions &amp; offered an add'l tip which cut off even more time on our return drive. The built in seat in the shower deflected water onto the entire bathroom floor, which was an unfortunate design flaw: This flooded the floor of the bathroom &amp; created an undesirable fall risk after surgery. My bf mopped the mess up w/ towels which were dirty from floors which hadn't been cleaned. A small loveseat could've been a bonus if it was clean. All in all, however, the place was a really good, quiet place for me to recover following surgery. I'm also grateful to the kind &amp; helpful innkeeper &amp; staff for the early check in &amp; extra 1/2 hr. to check out: Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>My bf &amp; I stayed there following a surgery I had at St. Joseph's Hospital in Orange. I was in pain; the innkeeper kindly allowed us to check in early w/ my prescribed service dog. The bed was comfy, it was quiet &amp; we enjoyed a much needed good night's sleep. There was a flat screen TV mounted to the wall that worked great, a frig &amp; microwave, &amp; the A/C worked well, too. The continental breakfast was convenient &amp; sufficient for us. We had raisin bran w/ milk, yogurt, OJ, coffee, &amp; single-packaged raisin danishes which tasted best warmed up in the microwave. The innkeeper also double-checked our google map directions &amp; offered an add'l tip which cut off even more time on our return drive. The built in seat in the shower deflected water onto the entire bathroom floor, which was an unfortunate design flaw: This flooded the floor of the bathroom &amp; created an undesirable fall risk after surgery. My bf mopped the mess up w/ towels which were dirty from floors which hadn't been cleaned. A small loveseat could've been a bonus if it was clean. All in all, however, the place was a really good, quiet place for me to recover following surgery. I'm also grateful to the kind &amp; helpful innkeeper &amp; staff for the early check in &amp; extra 1/2 hr. to check out: Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r253439603-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>253439603</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Mostly good, some minor shortcomings</t>
+  </si>
+  <si>
+    <t>We usually stay at a Super 8 when we travel and had chosen the one in Westminster when we came to Huntington Beach for the marathon. We stayed three nights. The guy at front desk in the lobby was very helpful and checked which of the rooms were ready so we could check in before time (which is 3 p.m.) even though we were there before noon. 
+The room was the typical Super 8, including a fridge and a microwave as well as a coffee machine. The wash basin had a hair dryer. The room was perfectly clean, but the furniture a bit, well, middle-aged. In this context the carpet was definitely elderly, a bit threadbare and with a stain. The appliances in the bathroom and at the wash basin were all on good order and everything worked well.
+The bed was good and we slept very well in it. There were some people out on the walkway on the way to their rooms later in the evening who seemed to think they were the only ones around, or else, that everybody else was deaf … but once they were inside it was surprisingly quiet considering this Super 8 is on Beach Boulevard. 
+The desk clerk further assisted us by changing some bills into coins for the bus fare, showing us where the bus to the beach stopped and which number bus to take – he was extremely helpful.
+Breakfast...We usually stay at a Super 8 when we travel and had chosen the one in Westminster when we came to Huntington Beach for the marathon. We stayed three nights. The guy at front desk in the lobby was very helpful and checked which of the rooms were ready so we could check in before time (which is 3 p.m.) even though we were there before noon. The room was the typical Super 8, including a fridge and a microwave as well as a coffee machine. The wash basin had a hair dryer. The room was perfectly clean, but the furniture a bit, well, middle-aged. In this context the carpet was definitely elderly, a bit threadbare and with a stain. The appliances in the bathroom and at the wash basin were all on good order and everything worked well.The bed was good and we slept very well in it. There were some people out on the walkway on the way to their rooms later in the evening who seemed to think they were the only ones around, or else, that everybody else was deaf … but once they were inside it was surprisingly quiet considering this Super 8 is on Beach Boulevard. The desk clerk further assisted us by changing some bills into coins for the bus fare, showing us where the bus to the beach stopped and which number bus to take – he was extremely helpful.Breakfast was in a small room off the lobby – three small two-person tables. The range stretched from two types of corn flakes to toast, yoghurt, oranges (not every day) and some sweet buns I didn’t investigate further. For my taste there could have been a bit more fresh fruit – a common shortcoming at the motels in my opinion. The rate was very reasonable considering the location, a few miles from the beach.The wifi was a bit slow at times, but always worked. You could hear people walking round in the room above you, so top floor rooms would be a plus in this respect. My only real gripe was the room service: she didn’t replace the coffee sachets we’d used, and she threw the t-shirt I sleep in to the side even though I’d left it folded under the pillow. Neither did we get any more shampoo bottles even though we’d used the first one up.MoreShow less</t>
+  </si>
+  <si>
+    <t>We usually stay at a Super 8 when we travel and had chosen the one in Westminster when we came to Huntington Beach for the marathon. We stayed three nights. The guy at front desk in the lobby was very helpful and checked which of the rooms were ready so we could check in before time (which is 3 p.m.) even though we were there before noon. 
+The room was the typical Super 8, including a fridge and a microwave as well as a coffee machine. The wash basin had a hair dryer. The room was perfectly clean, but the furniture a bit, well, middle-aged. In this context the carpet was definitely elderly, a bit threadbare and with a stain. The appliances in the bathroom and at the wash basin were all on good order and everything worked well.
+The bed was good and we slept very well in it. There were some people out on the walkway on the way to their rooms later in the evening who seemed to think they were the only ones around, or else, that everybody else was deaf … but once they were inside it was surprisingly quiet considering this Super 8 is on Beach Boulevard. 
+The desk clerk further assisted us by changing some bills into coins for the bus fare, showing us where the bus to the beach stopped and which number bus to take – he was extremely helpful.
+Breakfast...We usually stay at a Super 8 when we travel and had chosen the one in Westminster when we came to Huntington Beach for the marathon. We stayed three nights. The guy at front desk in the lobby was very helpful and checked which of the rooms were ready so we could check in before time (which is 3 p.m.) even though we were there before noon. The room was the typical Super 8, including a fridge and a microwave as well as a coffee machine. The wash basin had a hair dryer. The room was perfectly clean, but the furniture a bit, well, middle-aged. In this context the carpet was definitely elderly, a bit threadbare and with a stain. The appliances in the bathroom and at the wash basin were all on good order and everything worked well.The bed was good and we slept very well in it. There were some people out on the walkway on the way to their rooms later in the evening who seemed to think they were the only ones around, or else, that everybody else was deaf … but once they were inside it was surprisingly quiet considering this Super 8 is on Beach Boulevard. The desk clerk further assisted us by changing some bills into coins for the bus fare, showing us where the bus to the beach stopped and which number bus to take – he was extremely helpful.Breakfast was in a small room off the lobby – three small two-person tables. The range stretched from two types of corn flakes to toast, yoghurt, oranges (not every day) and some sweet buns I didn’t investigate further. For my taste there could have been a bit more fresh fruit – a common shortcoming at the motels in my opinion. The rate was very reasonable considering the location, a few miles from the beach.The wifi was a bit slow at times, but always worked. You could hear people walking round in the room above you, so top floor rooms would be a plus in this respect. My only real gripe was the room service: she didn’t replace the coffee sachets we’d used, and she threw the t-shirt I sleep in to the side even though I’d left it folded under the pillow. Neither did we get any more shampoo bottles even though we’d used the first one up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r245029347-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>245029347</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r240073406-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>240073406</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service is excellent, courteous front desk personnel. Parking space is very open and limited thus reducing our sense of security. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r226187654-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>226187654</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r224456395-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>224456395</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible surprise- fire sprinklers goes off unexpectedly in night! </t>
+  </si>
+  <si>
+    <t>We stayed at this very worn and rather run down hotel for 5 nights in late August. Don't go there! They had a fire alarm go off and fire sprinklers poured down water into our room. No apologies and no explanations. No discounted price either. I will never stay there again. They don't care about their guests. MoreShow less</t>
+  </si>
+  <si>
+    <t>super8westminster, Webmaster at Hotel 39 Westminster, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this very worn and rather run down hotel for 5 nights in late August. Don't go there! They had a fire alarm go off and fire sprinklers poured down water into our room. No apologies and no explanations. No discounted price either. I will never stay there again. They don't care about their guests. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r222536402-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>222536402</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r210455863-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>210455863</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r205443107-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>205443107</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r205271922-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>205271922</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r200494119-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>200494119</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>super8westminster, Webmaster at Hotel 39 Westminster, responded to this reviewResponded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r199151212-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>199151212</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r198812485-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>198812485</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r189950820-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>189950820</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Made reservations over the phone so didn't know what to...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made reservations over the phone so didn't know what to expect but was satisfied with the location and service.  If I had to stay there again I would. </t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r183284503-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>183284503</t>
+  </si>
+  <si>
+    <t>11/02/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r183219326-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>183219326</t>
+  </si>
+  <si>
+    <t>11/01/2013</t>
+  </si>
+  <si>
+    <t>nice location but breakfast needs to be improved</t>
+  </si>
+  <si>
+    <t>nice hotel and nice location if you are visiting Huntington beach, rooms and not great but reasonable, swimming pool  is poor and breakfast is poor, but according to the price you can say it is average hotel, less than a mile there is bella terra plaza you can find every thing there and on the other side you will find target super market witch i like to book a hotel near to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>super8westminster, Webmaster at Hotel 39 Westminster, responded to this reviewResponded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2014</t>
+  </si>
+  <si>
+    <t>nice hotel and nice location if you are visiting Huntington beach, rooms and not great but reasonable, swimming pool  is poor and breakfast is poor, but according to the price you can say it is average hotel, less than a mile there is bella terra plaza you can find every thing there and on the other side you will find target super market witch i like to book a hotel near to it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r179746259-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>179746259</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r177781362-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>177781362</t>
+  </si>
+  <si>
+    <t>09/19/2013</t>
+  </si>
+  <si>
+    <t>Good location for price.</t>
+  </si>
+  <si>
+    <t>The location is great for the price.  It's really close to the Huntington Beaches.  It's also just down the road from Knott's Berry Farm.  We were able to get on the freeway and head up to LA for the day to the Citadel mall to do some shopping before going over to a Dodgers game.  We were also able to go down to Newport Beach and Balboa.  So I would say this was a great central location for our family for the things we wanted to do.  We would stay there again. The hotel is fine.  Nothing great but no complaints.  The pool is teeny tiny.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r176354568-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>176354568</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Not a bad motel!</t>
+  </si>
+  <si>
+    <t>I was surprised by some bad reviews for this. I stayed here with a friend whilst travelling California and it done the job nicely, value was good, staff was very friendly and room was pretty good. Location is probably not the best, but this didn't bother us as we were driving and not staying for long. But overall pretty happy with our stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r169283232-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>169283232</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r168799929-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>168799929</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r168769946-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>168769946</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r163891434-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>163891434</t>
+  </si>
+  <si>
+    <t>06/13/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r163825820-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>163825820</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>The staff is really nice.Really enjoy the continental...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is really nice.Really enjoy the continental breakfast.There was a bit of an odor but as soon as i turned the air on it went awayThe areas not the best but the rooms are nice they have microwaves and refrigerator in them.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r162072815-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>162072815</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r158289880-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>158289880</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r158280099-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>158280099</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r156578074-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>156578074</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Great Management</t>
+  </si>
+  <si>
+    <t>We visited and had a room for a week. We initially had some trouble accessing the Wi-Fi. Management quickly helped us and after that our connection was perfect. Breakfast was good with a lot of choices that allowed us to not have to go out and have more time to get ready for the seminar. Close to everything and the beach was beautiful at Huntington Beach. We would stay her again and recommend it highly.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r154565244-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>154565244</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r154545604-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>154545604</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r154131105-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>154131105</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r152714501-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>152714501</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r147396988-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>147396988</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>Breakfast?</t>
+  </si>
+  <si>
+    <t>I didn't see any sign that breakfast was offered, nor was I told that it was available.  In fact, there was NO coffee or tea setup in the lobby.  It would have been nice to at least have some coffee before I departed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I didn't see any sign that breakfast was offered, nor was I told that it was available.  In fact, there was NO coffee or tea setup in the lobby.  It would have been nice to at least have some coffee before I departed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r146194102-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>146194102</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>"No Sympathy, No Hospitality, and NO LATE CHECK OUT"</t>
+  </si>
+  <si>
+    <t>My husband,  young boys and myself arrived at Super 8 on a Thursday for 3 nights.  I was happy with the evening clerk that checked me in.  He was pleasant and the check in process was quick.  Our room was clean and up to date with tasteful modern furnishings.  I was intending to write a pretty good review for this motel until check out time approached.  My older son, almost 4, was not feeling well and needed my extra TLC which of course set me behind packing our things to meet the 11am check out time.  Well, I thought I would call the front desk to let the motel know that I needed an extra 45 minutes to check out.  When I called a lady answered and told me she could only give me 30 minutes extra and if I was past 11:30 then she would charge my credit card on file.  I informed her that I refused to pay an extra charge and that I have never heard of a hotel/motel refusing to let their customers  check out 1` hour after the regular check time. She informed me that it was fair due to the fact that the next guests were able to check in to the motel at their regular check in time at 3pm.  I said "are you kidding me?"  I was waiting for Astin Kutcher to come knocking at my door to tell me I was...My husband,  young boys and myself arrived at Super 8 on a Thursday for 3 nights.  I was happy with the evening clerk that checked me in.  He was pleasant and the check in process was quick.  Our room was clean and up to date with tasteful modern furnishings.  I was intending to write a pretty good review for this motel until check out time approached.  My older son, almost 4, was not feeling well and needed my extra TLC which of course set me behind packing our things to meet the 11am check out time.  Well, I thought I would call the front desk to let the motel know that I needed an extra 45 minutes to check out.  When I called a lady answered and told me she could only give me 30 minutes extra and if I was past 11:30 then she would charge my credit card on file.  I informed her that I refused to pay an extra charge and that I have never heard of a hotel/motel refusing to let their customers  check out 1` hour after the regular check time. She informed me that it was fair due to the fact that the next guests were able to check in to the motel at their regular check in time at 3pm.  I said "are you kidding me?"  I was waiting for Astin Kutcher to come knocking at my door to tell me I was  really on his show "Punked".  Of course no one came knocking at my door and the lady clerk and I exchanged some words back and fourth.  I will have to tell you that she was one of the worst people I have ever encountered in my life. I would never want anyone to go through that, so my advise is to find another motel/hotel.  STAY AWAY FROM THAT WICKED WOMAN.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>My husband,  young boys and myself arrived at Super 8 on a Thursday for 3 nights.  I was happy with the evening clerk that checked me in.  He was pleasant and the check in process was quick.  Our room was clean and up to date with tasteful modern furnishings.  I was intending to write a pretty good review for this motel until check out time approached.  My older son, almost 4, was not feeling well and needed my extra TLC which of course set me behind packing our things to meet the 11am check out time.  Well, I thought I would call the front desk to let the motel know that I needed an extra 45 minutes to check out.  When I called a lady answered and told me she could only give me 30 minutes extra and if I was past 11:30 then she would charge my credit card on file.  I informed her that I refused to pay an extra charge and that I have never heard of a hotel/motel refusing to let their customers  check out 1` hour after the regular check time. She informed me that it was fair due to the fact that the next guests were able to check in to the motel at their regular check in time at 3pm.  I said "are you kidding me?"  I was waiting for Astin Kutcher to come knocking at my door to tell me I was...My husband,  young boys and myself arrived at Super 8 on a Thursday for 3 nights.  I was happy with the evening clerk that checked me in.  He was pleasant and the check in process was quick.  Our room was clean and up to date with tasteful modern furnishings.  I was intending to write a pretty good review for this motel until check out time approached.  My older son, almost 4, was not feeling well and needed my extra TLC which of course set me behind packing our things to meet the 11am check out time.  Well, I thought I would call the front desk to let the motel know that I needed an extra 45 minutes to check out.  When I called a lady answered and told me she could only give me 30 minutes extra and if I was past 11:30 then she would charge my credit card on file.  I informed her that I refused to pay an extra charge and that I have never heard of a hotel/motel refusing to let their customers  check out 1` hour after the regular check time. She informed me that it was fair due to the fact that the next guests were able to check in to the motel at their regular check in time at 3pm.  I said "are you kidding me?"  I was waiting for Astin Kutcher to come knocking at my door to tell me I was  really on his show "Punked".  Of course no one came knocking at my door and the lady clerk and I exchanged some words back and fourth.  I will have to tell you that she was one of the worst people I have ever encountered in my life. I would never want anyone to go through that, so my advise is to find another motel/hotel.  STAY AWAY FROM THAT WICKED WOMAN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r131474335-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>131474335</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Close to Little Saigon</t>
+  </si>
+  <si>
+    <t>This clean Super 8 is close to the highway and Little Saigon (Vietnamese supermarkets and restaurants). It was reasonably priced. I called to book 1 extra night prior to what was booked through Expedia and they were good about it and gave me the same rate. Although it is close to the strip mall with a bar but no worries my rental car was always where it should be. Breakfast area is quite small just across from the reception. The rooms were clean. This location is ideal if you would like to visit the beaches (Manhattan, Hermosa, Redondo), Palo Verdes and San Diego areas. That's what we did.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r130035940-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>130035940</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>A Really Pleasant Find While Passing Through!</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed here when we were driving along on a roadtrip around the USA and it started to get dark. We decided to take a random highway exit and came across this place.
+I rushed into the reception to check prices and after hearing they were quite low, and receiving really friendly service from the woman behind the desk, I went out to the car to tell my girlfriend that I'd book us a night.
+Despite us dropping in at night and looking for a last minute room, the woman behind the desk was really warm and welcoming. We were given a discounted king room which was quite large with a clean bathroom. The WiFi worked fine.
+We also used the laundry at the motel which was fine, and noticed a decent yet small fitness room and hot tub (unfortunately we didn't have time to try these). The included breakfast was also very good - served in a dining room with a TV, we helped ourselves to a hot buffet breakfast ranging from juice, yoghurt, toast and cereal, to waffles and sausages with 'biscuits and gravy'.
+While we didn't get to see much of Westminster (although we did buy a camera from the nearby Target superstore), it is quite close to Denver. 
+I'd definitely recommend this place if you're passing through but want a little more than a 'just passing through' motel, or even if you're looking...My girlfriend and I stayed here when we were driving along on a roadtrip around the USA and it started to get dark. We decided to take a random highway exit and came across this place.I rushed into the reception to check prices and after hearing they were quite low, and receiving really friendly service from the woman behind the desk, I went out to the car to tell my girlfriend that I'd book us a night.Despite us dropping in at night and looking for a last minute room, the woman behind the desk was really warm and welcoming. We were given a discounted king room which was quite large with a clean bathroom. The WiFi worked fine.We also used the laundry at the motel which was fine, and noticed a decent yet small fitness room and hot tub (unfortunately we didn't have time to try these). The included breakfast was also very good - served in a dining room with a TV, we helped ourselves to a hot buffet breakfast ranging from juice, yoghurt, toast and cereal, to waffles and sausages with 'biscuits and gravy'.While we didn't get to see much of Westminster (although we did buy a camera from the nearby Target superstore), it is quite close to Denver. I'd definitely recommend this place if you're passing through but want a little more than a 'just passing through' motel, or even if you're looking for cheap accommodation outside of the bigger cities (we came from Fort Collins and headed out to explore Boulder the next morning).MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed here when we were driving along on a roadtrip around the USA and it started to get dark. We decided to take a random highway exit and came across this place.
+I rushed into the reception to check prices and after hearing they were quite low, and receiving really friendly service from the woman behind the desk, I went out to the car to tell my girlfriend that I'd book us a night.
+Despite us dropping in at night and looking for a last minute room, the woman behind the desk was really warm and welcoming. We were given a discounted king room which was quite large with a clean bathroom. The WiFi worked fine.
+We also used the laundry at the motel which was fine, and noticed a decent yet small fitness room and hot tub (unfortunately we didn't have time to try these). The included breakfast was also very good - served in a dining room with a TV, we helped ourselves to a hot buffet breakfast ranging from juice, yoghurt, toast and cereal, to waffles and sausages with 'biscuits and gravy'.
+While we didn't get to see much of Westminster (although we did buy a camera from the nearby Target superstore), it is quite close to Denver. 
+I'd definitely recommend this place if you're passing through but want a little more than a 'just passing through' motel, or even if you're looking...My girlfriend and I stayed here when we were driving along on a roadtrip around the USA and it started to get dark. We decided to take a random highway exit and came across this place.I rushed into the reception to check prices and after hearing they were quite low, and receiving really friendly service from the woman behind the desk, I went out to the car to tell my girlfriend that I'd book us a night.Despite us dropping in at night and looking for a last minute room, the woman behind the desk was really warm and welcoming. We were given a discounted king room which was quite large with a clean bathroom. The WiFi worked fine.We also used the laundry at the motel which was fine, and noticed a decent yet small fitness room and hot tub (unfortunately we didn't have time to try these). The included breakfast was also very good - served in a dining room with a TV, we helped ourselves to a hot buffet breakfast ranging from juice, yoghurt, toast and cereal, to waffles and sausages with 'biscuits and gravy'.While we didn't get to see much of Westminster (although we did buy a camera from the nearby Target superstore), it is quite close to Denver. I'd definitely recommend this place if you're passing through but want a little more than a 'just passing through' motel, or even if you're looking for cheap accommodation outside of the bigger cities (we came from Fort Collins and headed out to explore Boulder the next morning).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r128363568-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>128363568</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>yuck</t>
+  </si>
+  <si>
+    <t>Smelly and in poor condition. Blankets were stained as were the sheets and there was a huge burn hole in the blanket. I really think the bar next door was filled with working girls that were spilling into the parking lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Smelly and in poor condition. Blankets were stained as were the sheets and there was a huge burn hole in the blanket. I really think the bar next door was filled with working girls that were spilling into the parking lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r70560451-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>70560451</t>
+  </si>
+  <si>
+    <t>07/11/2010</t>
+  </si>
+  <si>
+    <t>Horrible parking but nice rooms for a Super 8</t>
+  </si>
+  <si>
+    <t>If you are towing a trailer this isnt a safe bet....And there is no elevator...The rooms were actually very nice for a Super 8.....</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r47891141-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>47891141</t>
+  </si>
+  <si>
+    <t>10/27/2009</t>
+  </si>
+  <si>
+    <t>Nice Hotel Iffy Location</t>
+  </si>
+  <si>
+    <t>My family and I stayed at at the the Super 8 Westminster to be close to Huntington Beach and Long Beach.  We typically stay near Disneyland, however we decided to venture out of our comfort zone.  
+First the positives:
+This is a Super 8, so we were surprised at the quality of the room. I would say it was one step up from basic. It had a large refrigerator as well as a microwave. It did have older decor, however, we were doing this trip on the cheap and just needed a bed.  The room was about average. The staff was very friendly and helpful.  In general, it is a 10 minute drive to the beach and 15 minute drive to Disneyland.  The overall value is good, you just need to know that this is a bargin hotel and do not have your expectations higher than that,
+The negatives:
+To be frank, the motel is next to a Strip Club and a Check Cashing location.  There are security cameras galore to address the location; however it only helped to further make us feel more insecure.  If the motel was just on the South side of the Freeway, it would have been fine.  The North side of the freeway is iffy.  The pool is very small and not heated and the contential breakfast is pretty basic, danishes and muffins in plastic wrappers, fruit loops or cherrios, and juice, coffee, or milk....My family and I stayed at at the the Super 8 Westminster to be close to Huntington Beach and Long Beach.  We typically stay near Disneyland, however we decided to venture out of our comfort zone.  First the positives:This is a Super 8, so we were surprised at the quality of the room. I would say it was one step up from basic. It had a large refrigerator as well as a microwave. It did have older decor, however, we were doing this trip on the cheap and just needed a bed.  The room was about average. The staff was very friendly and helpful.  In general, it is a 10 minute drive to the beach and 15 minute drive to Disneyland.  The overall value is good, you just need to know that this is a bargin hotel and do not have your expectations higher than that,The negatives:To be frank, the motel is next to a Strip Club and a Check Cashing location.  There are security cameras galore to address the location; however it only helped to further make us feel more insecure.  If the motel was just on the South side of the Freeway, it would have been fine.  The North side of the freeway is iffy.  The pool is very small and not heated and the contential breakfast is pretty basic, danishes and muffins in plastic wrappers, fruit loops or cherrios, and juice, coffee, or milk.  While I know you get what you pay for, an attempted at presentation would have been nice. I would not recommend this location for families.  It would have been fine if it was just myself.  What it did teach me though is stay in areas you are more comfortable with.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>My family and I stayed at at the the Super 8 Westminster to be close to Huntington Beach and Long Beach.  We typically stay near Disneyland, however we decided to venture out of our comfort zone.  
+First the positives:
+This is a Super 8, so we were surprised at the quality of the room. I would say it was one step up from basic. It had a large refrigerator as well as a microwave. It did have older decor, however, we were doing this trip on the cheap and just needed a bed.  The room was about average. The staff was very friendly and helpful.  In general, it is a 10 minute drive to the beach and 15 minute drive to Disneyland.  The overall value is good, you just need to know that this is a bargin hotel and do not have your expectations higher than that,
+The negatives:
+To be frank, the motel is next to a Strip Club and a Check Cashing location.  There are security cameras galore to address the location; however it only helped to further make us feel more insecure.  If the motel was just on the South side of the Freeway, it would have been fine.  The North side of the freeway is iffy.  The pool is very small and not heated and the contential breakfast is pretty basic, danishes and muffins in plastic wrappers, fruit loops or cherrios, and juice, coffee, or milk....My family and I stayed at at the the Super 8 Westminster to be close to Huntington Beach and Long Beach.  We typically stay near Disneyland, however we decided to venture out of our comfort zone.  First the positives:This is a Super 8, so we were surprised at the quality of the room. I would say it was one step up from basic. It had a large refrigerator as well as a microwave. It did have older decor, however, we were doing this trip on the cheap and just needed a bed.  The room was about average. The staff was very friendly and helpful.  In general, it is a 10 minute drive to the beach and 15 minute drive to Disneyland.  The overall value is good, you just need to know that this is a bargin hotel and do not have your expectations higher than that,The negatives:To be frank, the motel is next to a Strip Club and a Check Cashing location.  There are security cameras galore to address the location; however it only helped to further make us feel more insecure.  If the motel was just on the South side of the Freeway, it would have been fine.  The North side of the freeway is iffy.  The pool is very small and not heated and the contential breakfast is pretty basic, danishes and muffins in plastic wrappers, fruit loops or cherrios, and juice, coffee, or milk.  While I know you get what you pay for, an attempted at presentation would have been nice. I would not recommend this location for families.  It would have been fine if it was just myself.  What it did teach me though is stay in areas you are more comfortable with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r8454812-Hotel_39_Westminster-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>8454812</t>
+  </si>
+  <si>
+    <t>08/18/2007</t>
+  </si>
+  <si>
+    <t>Typical Super8 experience</t>
+  </si>
+  <si>
+    <t>Reserved a king, non-smoking standard room.   Thought that the "standard" room had fridges, since the website advertised them.  Was advised by the very helpful lady at the front desk that the "executive" room gets the fridge for $6 more.  She told me that it really pays to call the Super8 phone number to verify every time, since the website doesn't guarantee the size of bed or even the smoking preference - and she's learned that the hard way, after working for Super8 for a long time!Typical Super 8 experience - bed quality, furnishings, room size, etc.  SuperStart breakfast did have a nice selection of fresh fruit and 4 - count it - 4 different kinds of fruit juices in their fruit juice machine.  No yogurt or waffle makers - found that to be the case throughout the trip - wonder what happened??Best thing about this location - the very experienced, friendly front desk staff.  Also, a quiet location, and a quiet room, thanks to placement by the selfsame front desk staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>Reserved a king, non-smoking standard room.   Thought that the "standard" room had fridges, since the website advertised them.  Was advised by the very helpful lady at the front desk that the "executive" room gets the fridge for $6 more.  She told me that it really pays to call the Super8 phone number to verify every time, since the website doesn't guarantee the size of bed or even the smoking preference - and she's learned that the hard way, after working for Super8 for a long time!Typical Super 8 experience - bed quality, furnishings, room size, etc.  SuperStart breakfast did have a nice selection of fresh fruit and 4 - count it - 4 different kinds of fruit juices in their fruit juice machine.  No yogurt or waffle makers - found that to be the case throughout the trip - wonder what happened??Best thing about this location - the very experienced, friendly front desk staff.  Also, a quiet location, and a quiet room, thanks to placement by the selfsame front desk staff.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1898,4921 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>154</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>223</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>235</v>
+      </c>
+      <c r="X32" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>243</v>
+      </c>
+      <c r="O33" t="s">
+        <v>154</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>235</v>
+      </c>
+      <c r="X33" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>243</v>
+      </c>
+      <c r="O34" t="s">
+        <v>88</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>235</v>
+      </c>
+      <c r="X34" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" t="s">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>253</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>259</v>
+      </c>
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" t="s">
+        <v>264</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>259</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>253</v>
+      </c>
+      <c r="O38" t="s">
+        <v>74</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>88</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s">
+        <v>167</v>
+      </c>
+      <c r="L40" t="s">
+        <v>279</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>280</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>282</v>
+      </c>
+      <c r="J41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
+        <v>88</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>290</v>
+      </c>
+      <c r="X42" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J43" t="s">
+        <v>295</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>284</v>
+      </c>
+      <c r="O43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>299</v>
+      </c>
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>300</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>301</v>
+      </c>
+      <c r="J45" t="s">
+        <v>302</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>299</v>
+      </c>
+      <c r="O45" t="s">
+        <v>154</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>304</v>
+      </c>
+      <c r="J46" t="s">
+        <v>305</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>60</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>306</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>307</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>308</v>
+      </c>
+      <c r="J47" t="s">
+        <v>309</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>60</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>306</v>
+      </c>
+      <c r="O47" t="s">
+        <v>154</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>310</v>
+      </c>
+      <c r="X47" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>312</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>313</v>
+      </c>
+      <c r="J48" t="s">
+        <v>314</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>60</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>315</v>
+      </c>
+      <c r="O48" t="s">
+        <v>74</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>310</v>
+      </c>
+      <c r="X48" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>317</v>
+      </c>
+      <c r="J49" t="s">
+        <v>318</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>315</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>319</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" t="s">
+        <v>322</v>
+      </c>
+      <c r="L50" t="s">
+        <v>323</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>324</v>
+      </c>
+      <c r="O50" t="s">
+        <v>74</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>325</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>326</v>
+      </c>
+      <c r="J51" t="s">
+        <v>327</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>328</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>329</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>330</v>
+      </c>
+      <c r="J52" t="s">
+        <v>331</v>
+      </c>
+      <c r="K52" t="s">
+        <v>332</v>
+      </c>
+      <c r="L52" t="s">
+        <v>333</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>334</v>
+      </c>
+      <c r="O52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>335</v>
+      </c>
+      <c r="X52" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>338</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>339</v>
+      </c>
+      <c r="J53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>60</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>341</v>
+      </c>
+      <c r="O53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>335</v>
+      </c>
+      <c r="X53" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>343</v>
+      </c>
+      <c r="J54" t="s">
+        <v>344</v>
+      </c>
+      <c r="K54" t="s">
+        <v>345</v>
+      </c>
+      <c r="L54" t="s">
+        <v>346</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>347</v>
+      </c>
+      <c r="O54" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>348</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>349</v>
+      </c>
+      <c r="J55" t="s">
+        <v>350</v>
+      </c>
+      <c r="K55" t="s">
+        <v>351</v>
+      </c>
+      <c r="L55" t="s">
+        <v>352</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>347</v>
+      </c>
+      <c r="O55" t="s">
+        <v>154</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>353</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>354</v>
+      </c>
+      <c r="J56" t="s">
+        <v>355</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>334</v>
+      </c>
+      <c r="O56" t="s">
+        <v>68</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>356</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>357</v>
+      </c>
+      <c r="J57" t="s">
+        <v>358</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>60</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>334</v>
+      </c>
+      <c r="O57" t="s">
+        <v>68</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>335</v>
+      </c>
+      <c r="X57" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>359</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>360</v>
+      </c>
+      <c r="J58" t="s">
+        <v>358</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>334</v>
+      </c>
+      <c r="O58" t="s">
+        <v>154</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>361</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>362</v>
+      </c>
+      <c r="J59" t="s">
+        <v>363</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>364</v>
+      </c>
+      <c r="O59" t="s">
+        <v>68</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>366</v>
+      </c>
+      <c r="J60" t="s">
+        <v>367</v>
+      </c>
+      <c r="K60" t="s">
+        <v>368</v>
+      </c>
+      <c r="L60" t="s">
+        <v>369</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>364</v>
+      </c>
+      <c r="O60" t="s">
+        <v>88</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>370</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>371</v>
+      </c>
+      <c r="J61" t="s">
+        <v>372</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>373</v>
+      </c>
+      <c r="O61" t="s">
+        <v>68</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>374</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>375</v>
+      </c>
+      <c r="J62" t="s">
+        <v>376</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>377</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>378</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>379</v>
+      </c>
+      <c r="J63" t="s">
+        <v>376</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>377</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>380</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>381</v>
+      </c>
+      <c r="J64" t="s">
+        <v>382</v>
+      </c>
+      <c r="K64" t="s">
+        <v>383</v>
+      </c>
+      <c r="L64" t="s">
+        <v>384</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>385</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>386</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>387</v>
+      </c>
+      <c r="J65" t="s">
+        <v>388</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>60</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>385</v>
+      </c>
+      <c r="O65" t="s">
+        <v>88</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>335</v>
+      </c>
+      <c r="X65" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>389</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>390</v>
+      </c>
+      <c r="J66" t="s">
+        <v>388</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>385</v>
+      </c>
+      <c r="O66" t="s">
+        <v>74</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>391</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>392</v>
+      </c>
+      <c r="J67" t="s">
+        <v>393</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>385</v>
+      </c>
+      <c r="O67" t="s">
+        <v>88</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>394</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>395</v>
+      </c>
+      <c r="J68" t="s">
+        <v>396</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>397</v>
+      </c>
+      <c r="O68" t="s">
+        <v>68</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>398</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>399</v>
+      </c>
+      <c r="J69" t="s">
+        <v>400</v>
+      </c>
+      <c r="K69" t="s">
+        <v>401</v>
+      </c>
+      <c r="L69" t="s">
+        <v>402</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>403</v>
+      </c>
+      <c r="O69" t="s">
+        <v>68</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>335</v>
+      </c>
+      <c r="X69" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>405</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>406</v>
+      </c>
+      <c r="J70" t="s">
+        <v>407</v>
+      </c>
+      <c r="K70" t="s">
+        <v>408</v>
+      </c>
+      <c r="L70" t="s">
+        <v>409</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>410</v>
+      </c>
+      <c r="O70" t="s">
+        <v>68</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>335</v>
+      </c>
+      <c r="X70" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>412</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>413</v>
+      </c>
+      <c r="J71" t="s">
+        <v>414</v>
+      </c>
+      <c r="K71" t="s">
+        <v>415</v>
+      </c>
+      <c r="L71" t="s">
+        <v>416</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>417</v>
+      </c>
+      <c r="O71" t="s">
+        <v>68</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>418</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>419</v>
+      </c>
+      <c r="J72" t="s">
+        <v>420</v>
+      </c>
+      <c r="K72" t="s">
+        <v>421</v>
+      </c>
+      <c r="L72" t="s">
+        <v>422</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>423</v>
+      </c>
+      <c r="O72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>425</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>426</v>
+      </c>
+      <c r="J73" t="s">
+        <v>427</v>
+      </c>
+      <c r="K73" t="s">
+        <v>428</v>
+      </c>
+      <c r="L73" t="s">
+        <v>429</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>430</v>
+      </c>
+      <c r="O73" t="s">
+        <v>88</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>335</v>
+      </c>
+      <c r="X73" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>432</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>433</v>
+      </c>
+      <c r="J74" t="s">
+        <v>434</v>
+      </c>
+      <c r="K74" t="s">
+        <v>435</v>
+      </c>
+      <c r="L74" t="s">
+        <v>436</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>437</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>438</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>439</v>
+      </c>
+      <c r="J75" t="s">
+        <v>440</v>
+      </c>
+      <c r="K75" t="s">
+        <v>441</v>
+      </c>
+      <c r="L75" t="s">
+        <v>442</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>443</v>
+      </c>
+      <c r="O75" t="s">
+        <v>68</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>24355</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>445</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>446</v>
+      </c>
+      <c r="J76" t="s">
+        <v>447</v>
+      </c>
+      <c r="K76" t="s">
+        <v>448</v>
+      </c>
+      <c r="L76" t="s">
+        <v>449</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>450</v>
+      </c>
+      <c r="O76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>451</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_401.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_401.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>bajaconsultant</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>1 st  floor  room  was  convenient   good  elevator  good  breakfast  good  parking   and  felt  very  secure  also  room  was  very  large  spacy  also   the  staff  was   helpful  and  always  friendly  I  had  a  very  bad  experience  with  the  best  western  on  Westminster  blv  will  never  recommend  that  hotel  ever  ......More</t>
   </si>
   <si>
+    <t>MEDMAN_398033</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r463596344-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>C403FSjessicav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r462991321-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Responded February 27, 2017</t>
   </si>
   <si>
+    <t>lopezesme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r462271116-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Z867VQkeiths</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r459706944-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Jay at the front desk was very helpful. We got there early and he found us a room that was perfect with space for handicapped access. For a free breakfast it was wonderful with waffles cereals fruit toast danishes coffee tea and oatmealMore</t>
   </si>
   <si>
+    <t>salbU3927IJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r457926968-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>Close to 405 and restaurants.Immediate location leaves a lot to be desired-strip bar and liquor store.Although room was private, quiet and pleasant.More</t>
   </si>
   <si>
+    <t>Absolutelynda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r438604106-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>My Sister and my  brother was with me, we needed an overnight stay it was a last minute booking that I booked on my iPhone.We  arrived late at night almost midnight.*Front desk employees was friendly, *The out side has a couple of planters unattended needs help with unkept dying plants. *The  surrounding is not inviting needs to create garden like atmosphere.*Room is clean and spacious . I just booked 5 rooms for 2 nights stay, we on a road trip to pay our respect to family member just past.More</t>
   </si>
   <si>
+    <t>GaryAther</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r436070854-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>Amazing stay. Jason and Dave was amazing people had a chat in the mornings before I went to work. They was both excellent with customer service. Thank you for the amazing stay I will head back to the uk and recommend tho place. It's affordable and comfortable and clean rooms daily. Thank you Super8 More</t>
   </si>
   <si>
+    <t>DisneyMarilyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r435999575-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>11/09/2016</t>
   </si>
   <si>
+    <t>Jeri W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r431028692-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>I was really impressed with this hotel.  Clean, smoke-free, conveniently located.  Friendly staff.  In room microwave, fridge and coffee maker.  My new favorite.More</t>
   </si>
   <si>
+    <t>406charlesn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r427050825-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>Responded October 14, 2016</t>
   </si>
   <si>
+    <t>597kristyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r423963058-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>Responded October 3, 2016</t>
   </si>
   <si>
+    <t>sprinklerhead</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r401719710-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -441,6 +480,9 @@
     <t>Obviously family run.  Stayed 3 nights for location and price.  Clean updated room, asked for extra towels and delivered in two minutes. Standard breakfast and super friendly staff.  next to freeway and old strip mall- better than it looked driving by at 45mph. Teeny pool but not there to swim 5 stars as clean, kind and can't be beat at priceMore</t>
   </si>
   <si>
+    <t>RainySummers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r394338619-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -462,6 +504,9 @@
     <t>Horrific employees, creepy feel, bad element of people surrounding the place, the pool is more like a dirty jacuzzi, and we got locked out of our bathroom several times, due to a broken lock. More</t>
   </si>
   <si>
+    <t>Jerry E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r389421365-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -492,6 +537,9 @@
     <t>This place was just ok, we only stayed here because the value was good.  The room is what you'd expect from any motel, just clean and comfortable enough to sleep in, but not to spend a day lounging in.  The grounds aren't great, and the pool was filthy.  The area also isn't the safest, so don't leave your belongings in the car.In the end, though, I'd only stay here again if I was able to get a really good deal.  Otherwise, best to spend a few extra bucks and stay somewhere nicer up the freeway.More</t>
   </si>
   <si>
+    <t>P8394YQjimp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r381001339-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -510,6 +558,9 @@
     <t>Responded June 22, 2016</t>
   </si>
   <si>
+    <t>mbleill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r379210598-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -531,6 +582,9 @@
     <t>Older but clean hotel.  Located in a high traffic area with plenty of near by restaurants.  Not the best part of town but seemed safe.  Their beds were excellent and room was very clean.  Good value.More</t>
   </si>
   <si>
+    <t>Jeff K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r378558636-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -540,6 +594,9 @@
     <t>06/01/2016</t>
   </si>
   <si>
+    <t>es123578</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r371600069-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -561,6 +618,9 @@
     <t>This was a good place to stay for a short visit. First of all, after a long flight I got to the hotel about 4 hours before check in.  I asked if I could check in early, but was told that the room wasn't ready yet.  But the front desk person, I forgot the guy's name, but the was very helpful, said I could precheck in, give him my contact number and when the room was available would call me.  I was very pleased when about 45 minutes later, he called me to say the room was ready and I could come in.  The entire stay was good, room was good, service was good.  The staff was friendly every morning making the stay enjoyable.  In this case hats off to that guy at the front desk, he should be commended for his customer service, unfortunately I forgot his name, sometimes they say first impressions makes the visit, in this case it did.More</t>
   </si>
   <si>
+    <t>FFEMTVZOL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r360467557-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -582,6 +642,9 @@
     <t>Room was not clean.  Clothes from previous guest were on the floor in a corner.  Cleaning rags were left on furniture.  While a non-smoking property, the smell of smoke was prevalent.  Bottom sheet only covered 3/4 of bed.  Requested correct sheets, not done.  We had to remake the bed and better position the sheet to cover more of the bed area. Internet was not reliable.  We were dropped while using the system and had to log in again, even though we had logged in only a short time earlier.Breakfast was only carbs, not even fruit.  Stocking was not regular.  Availability seemed to be random on when someone remembered to restock food items.Front desk personal were friendly.  They were willing to help, but could only do so much. More</t>
   </si>
   <si>
+    <t>MedicalADAGuest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r360211125-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -591,6 +654,9 @@
     <t>03/30/2016</t>
   </si>
   <si>
+    <t>X2814QSpatriciaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r357167227-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -606,6 +672,9 @@
     <t>The first room they put us in was totally dirty. It had used water bottles all over the place. The first night we were there something happened in the strip mall that the hotel was in and there were cops and police tape everywhere. Overall, when we got our clean room, it was ok. The staff were excellent but I wouldn't stay there by myself.</t>
   </si>
   <si>
+    <t>mochajava9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r355357087-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -615,6 +684,9 @@
     <t>03/14/2016</t>
   </si>
   <si>
+    <t>whohoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r353645405-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -624,6 +696,9 @@
     <t>03/07/2016</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r336527475-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -642,6 +717,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Kenneth W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r328842751-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -654,6 +732,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>840albac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r315869049-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -666,6 +747,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>H2269DNjoea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r298144628-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -678,6 +762,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>P3291GSjohna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r295354916-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -690,6 +777,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Cheryl H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r285632919-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -705,6 +795,9 @@
     <t>I travel to Huntington Beach a lot, and it is always a pleasure to stay here. The desk gentleman are always helpful and friendly and help me in anyway they can. Even during the busy times I find they keep things clean and quiet. I always enjoy my stay.</t>
   </si>
   <si>
+    <t>rochellem183</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r272814909-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -732,6 +825,9 @@
     <t>When I booked this room thru World Mark I wasn't away that the elevator was down.  We checked in at 12:30 a.m. and the night clerk didn't speak clear English and refused to speak into the microphone so I could hear him, he wasn't very friendly, The breakfast was less than desirable, with frozen waffles, and 2 cereal choices. It didn't have a mini fridge, or a microwave, and only 1 ice maker on the very bottom floor, while we were on the 4th floor. More</t>
   </si>
   <si>
+    <t>Treva R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r269468196-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -753,6 +849,9 @@
     <t>This property is ok. Very clean but the elevator wasn't working so up 4 flights of stairs. They did refund 1/2 of my nights stay.More</t>
   </si>
   <si>
+    <t>Patricia W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r266714432-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -762,6 +861,9 @@
     <t>04/19/2015</t>
   </si>
   <si>
+    <t>Maria R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r261380138-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -814,6 +916,9 @@
   </si>
   <si>
     <t>My bf &amp; I stayed there following a surgery I had at St. Joseph's Hospital in Orange. I was in pain; the innkeeper kindly allowed us to check in early w/ my prescribed service dog. The bed was comfy, it was quiet &amp; we enjoyed a much needed good night's sleep. There was a flat screen TV mounted to the wall that worked great, a frig &amp; microwave, &amp; the A/C worked well, too. The continental breakfast was convenient &amp; sufficient for us. We had raisin bran w/ milk, yogurt, OJ, coffee, &amp; single-packaged raisin danishes which tasted best warmed up in the microwave. The innkeeper also double-checked our google map directions &amp; offered an add'l tip which cut off even more time on our return drive. The built in seat in the shower deflected water onto the entire bathroom floor, which was an unfortunate design flaw: This flooded the floor of the bathroom &amp; created an undesirable fall risk after surgery. My bf mopped the mess up w/ towels which were dirty from floors which hadn't been cleaned. A small loveseat could've been a bonus if it was clean. All in all, however, the place was a really good, quiet place for me to recover following surgery. I'm also grateful to the kind &amp; helpful innkeeper &amp; staff for the early check in &amp; extra 1/2 hr. to check out: Thank you!More</t>
+  </si>
+  <si>
+    <t>Esty666</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r253439603-Hotel_39_Westminster-Westminster_California.html</t>
@@ -842,6 +947,9 @@
 Breakfast...We usually stay at a Super 8 when we travel and had chosen the one in Westminster when we came to Huntington Beach for the marathon. We stayed three nights. The guy at front desk in the lobby was very helpful and checked which of the rooms were ready so we could check in before time (which is 3 p.m.) even though we were there before noon. The room was the typical Super 8, including a fridge and a microwave as well as a coffee machine. The wash basin had a hair dryer. The room was perfectly clean, but the furniture a bit, well, middle-aged. In this context the carpet was definitely elderly, a bit threadbare and with a stain. The appliances in the bathroom and at the wash basin were all on good order and everything worked well.The bed was good and we slept very well in it. There were some people out on the walkway on the way to their rooms later in the evening who seemed to think they were the only ones around, or else, that everybody else was deaf … but once they were inside it was surprisingly quiet considering this Super 8 is on Beach Boulevard. The desk clerk further assisted us by changing some bills into coins for the bus fare, showing us where the bus to the beach stopped and which number bus to take – he was extremely helpful.Breakfast was in a small room off the lobby – three small two-person tables. The range stretched from two types of corn flakes to toast, yoghurt, oranges (not every day) and some sweet buns I didn’t investigate further. For my taste there could have been a bit more fresh fruit – a common shortcoming at the motels in my opinion. The rate was very reasonable considering the location, a few miles from the beach.The wifi was a bit slow at times, but always worked. You could hear people walking round in the room above you, so top floor rooms would be a plus in this respect. My only real gripe was the room service: she didn’t replace the coffee sachets we’d used, and she threw the t-shirt I sleep in to the side even though I’d left it folded under the pillow. Neither did we get any more shampoo bottles even though we’d used the first one up.More</t>
   </si>
   <si>
+    <t>284laurelp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r245029347-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -854,6 +962,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>nesterc2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r240073406-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -869,6 +980,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Rosa F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r226187654-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -881,6 +995,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Mauipastor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r224456395-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -905,6 +1022,9 @@
     <t>We stayed at this very worn and rather run down hotel for 5 nights in late August. Don't go there! They had a fire alarm go off and fire sprinklers poured down water into our room. No apologies and no explanations. No discounted price either. I will never stay there again. They don't care about their guests. More</t>
   </si>
   <si>
+    <t>Katherine B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r222536402-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -914,6 +1034,9 @@
     <t>08/17/2014</t>
   </si>
   <si>
+    <t>Mandy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r210455863-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -926,6 +1049,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Angela L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r205443107-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -935,6 +1061,9 @@
     <t>05/13/2014</t>
   </si>
   <si>
+    <t>A S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r205271922-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -947,6 +1076,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Angel V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r200494119-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -962,6 +1094,9 @@
     <t>Responded May 22, 2014</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r199151212-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -974,6 +1109,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Anita R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r198812485-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -983,6 +1121,9 @@
     <t>03/26/2014</t>
   </si>
   <si>
+    <t>Jackie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r189950820-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1001,6 +1142,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>William T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r183284503-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1013,6 +1157,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Sherif F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r183219326-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1040,6 +1187,9 @@
     <t>nice hotel and nice location if you are visiting Huntington beach, rooms and not great but reasonable, swimming pool  is poor and breakfast is poor, but according to the price you can say it is average hotel, less than a mile there is bella terra plaza you can find every thing there and on the other side you will find target super market witch i like to book a hotel near to it.More</t>
   </si>
   <si>
+    <t>Jesus J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r179746259-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1052,6 +1202,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Taiters6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r177781362-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1070,6 +1223,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>mx_dude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r176354568-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1085,6 +1241,9 @@
     <t>I was surprised by some bad reviews for this. I stayed here with a friend whilst travelling California and it done the job nicely, value was good, staff was very friendly and room was pretty good. Location is probably not the best, but this didn't bother us as we were driving and not staying for long. But overall pretty happy with our stay here.</t>
   </si>
   <si>
+    <t>Ken W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r169283232-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1094,6 +1253,9 @@
     <t>07/27/2013</t>
   </si>
   <si>
+    <t>Yassiara B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r168799929-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1103,12 +1265,18 @@
     <t>07/23/2013</t>
   </si>
   <si>
+    <t>Laurie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r168769946-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
     <t>168769946</t>
   </si>
   <si>
+    <t>mimimomma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r163891434-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1121,6 +1289,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Jessica H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r163825820-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1136,6 +1307,9 @@
     <t xml:space="preserve">The staff is really nice.Really enjoy the continental breakfast.There was a bit of an odor but as soon as i turned the air on it went awayThe areas not the best but the rooms are nice they have microwaves and refrigerator in them.  </t>
   </si>
   <si>
+    <t>Tchong L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r162072815-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1148,6 +1322,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Stan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r158289880-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1160,12 +1337,18 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Chris D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r158280099-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
     <t>158280099</t>
   </si>
   <si>
+    <t>Teresa F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r156578074-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1184,6 +1367,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Nelson R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r154565244-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1193,12 +1379,18 @@
     <t>03/14/2013</t>
   </si>
   <si>
+    <t>Cynthia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r154545604-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
     <t>154545604</t>
   </si>
   <si>
+    <t>Patrick C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r154131105-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1208,6 +1400,9 @@
     <t>03/09/2013</t>
   </si>
   <si>
+    <t>Clifford D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r152714501-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1220,6 +1415,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>MICHAEL V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r147396988-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1241,6 +1439,9 @@
     <t>I didn't see any sign that breakfast was offered, nor was I told that it was available.  In fact, there was NO coffee or tea setup in the lobby.  It would have been nice to at least have some coffee before I departed.More</t>
   </si>
   <si>
+    <t>Cathy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r146194102-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1262,6 +1463,9 @@
     <t>My husband,  young boys and myself arrived at Super 8 on a Thursday for 3 nights.  I was happy with the evening clerk that checked me in.  He was pleasant and the check in process was quick.  Our room was clean and up to date with tasteful modern furnishings.  I was intending to write a pretty good review for this motel until check out time approached.  My older son, almost 4, was not feeling well and needed my extra TLC which of course set me behind packing our things to meet the 11am check out time.  Well, I thought I would call the front desk to let the motel know that I needed an extra 45 minutes to check out.  When I called a lady answered and told me she could only give me 30 minutes extra and if I was past 11:30 then she would charge my credit card on file.  I informed her that I refused to pay an extra charge and that I have never heard of a hotel/motel refusing to let their customers  check out 1` hour after the regular check time. She informed me that it was fair due to the fact that the next guests were able to check in to the motel at their regular check in time at 3pm.  I said "are you kidding me?"  I was waiting for Astin Kutcher to come knocking at my door to tell me I was...My husband,  young boys and myself arrived at Super 8 on a Thursday for 3 nights.  I was happy with the evening clerk that checked me in.  He was pleasant and the check in process was quick.  Our room was clean and up to date with tasteful modern furnishings.  I was intending to write a pretty good review for this motel until check out time approached.  My older son, almost 4, was not feeling well and needed my extra TLC which of course set me behind packing our things to meet the 11am check out time.  Well, I thought I would call the front desk to let the motel know that I needed an extra 45 minutes to check out.  When I called a lady answered and told me she could only give me 30 minutes extra and if I was past 11:30 then she would charge my credit card on file.  I informed her that I refused to pay an extra charge and that I have never heard of a hotel/motel refusing to let their customers  check out 1` hour after the regular check time. She informed me that it was fair due to the fact that the next guests were able to check in to the motel at their regular check in time at 3pm.  I said "are you kidding me?"  I was waiting for Astin Kutcher to come knocking at my door to tell me I was  really on his show "Punked".  Of course no one came knocking at my door and the lady clerk and I exchanged some words back and fourth.  I will have to tell you that she was one of the worst people I have ever encountered in my life. I would never want anyone to go through that, so my advise is to find another motel/hotel.  STAY AWAY FROM THAT WICKED WOMAN.More</t>
   </si>
   <si>
+    <t>lugubres</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r131474335-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1278,6 +1482,9 @@
   </si>
   <si>
     <t>May 2012</t>
+  </si>
+  <si>
+    <t>Dion-NZ</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r130035940-Hotel_39_Westminster-Westminster_California.html</t>
@@ -1311,6 +1518,9 @@
 I'd definitely recommend this place if you're passing through but want a little more than a 'just passing through' motel, or even if you're looking...My girlfriend and I stayed here when we were driving along on a roadtrip around the USA and it started to get dark. We decided to take a random highway exit and came across this place.I rushed into the reception to check prices and after hearing they were quite low, and receiving really friendly service from the woman behind the desk, I went out to the car to tell my girlfriend that I'd book us a night.Despite us dropping in at night and looking for a last minute room, the woman behind the desk was really warm and welcoming. We were given a discounted king room which was quite large with a clean bathroom. The WiFi worked fine.We also used the laundry at the motel which was fine, and noticed a decent yet small fitness room and hot tub (unfortunately we didn't have time to try these). The included breakfast was also very good - served in a dining room with a TV, we helped ourselves to a hot buffet breakfast ranging from juice, yoghurt, toast and cereal, to waffles and sausages with 'biscuits and gravy'.While we didn't get to see much of Westminster (although we did buy a camera from the nearby Target superstore), it is quite close to Denver. I'd definitely recommend this place if you're passing through but want a little more than a 'just passing through' motel, or even if you're looking for cheap accommodation outside of the bigger cities (we came from Fort Collins and headed out to explore Boulder the next morning).More</t>
   </si>
   <si>
+    <t>Jennifur2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r128363568-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1332,6 +1542,9 @@
     <t>Smelly and in poor condition. Blankets were stained as were the sheets and there was a huge burn hole in the blanket. I really think the bar next door was filled with working girls that were spilling into the parking lot.More</t>
   </si>
   <si>
+    <t>thek5king</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r70560451-Hotel_39_Westminster-Westminster_California.html</t>
   </si>
   <si>
@@ -1348,6 +1561,9 @@
   </si>
   <si>
     <t>June 2010</t>
+  </si>
+  <si>
+    <t>eladril</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r47891141-Hotel_39_Westminster-Westminster_California.html</t>
@@ -1377,6 +1593,9 @@
 This is a Super 8, so we were surprised at the quality of the room. I would say it was one step up from basic. It had a large refrigerator as well as a microwave. It did have older decor, however, we were doing this trip on the cheap and just needed a bed.  The room was about average. The staff was very friendly and helpful.  In general, it is a 10 minute drive to the beach and 15 minute drive to Disneyland.  The overall value is good, you just need to know that this is a bargin hotel and do not have your expectations higher than that,
 The negatives:
 To be frank, the motel is next to a Strip Club and a Check Cashing location.  There are security cameras galore to address the location; however it only helped to further make us feel more insecure.  If the motel was just on the South side of the Freeway, it would have been fine.  The North side of the freeway is iffy.  The pool is very small and not heated and the contential breakfast is pretty basic, danishes and muffins in plastic wrappers, fruit loops or cherrios, and juice, coffee, or milk....My family and I stayed at at the the Super 8 Westminster to be close to Huntington Beach and Long Beach.  We typically stay near Disneyland, however we decided to venture out of our comfort zone.  First the positives:This is a Super 8, so we were surprised at the quality of the room. I would say it was one step up from basic. It had a large refrigerator as well as a microwave. It did have older decor, however, we were doing this trip on the cheap and just needed a bed.  The room was about average. The staff was very friendly and helpful.  In general, it is a 10 minute drive to the beach and 15 minute drive to Disneyland.  The overall value is good, you just need to know that this is a bargin hotel and do not have your expectations higher than that,The negatives:To be frank, the motel is next to a Strip Club and a Check Cashing location.  There are security cameras galore to address the location; however it only helped to further make us feel more insecure.  If the motel was just on the South side of the Freeway, it would have been fine.  The North side of the freeway is iffy.  The pool is very small and not heated and the contential breakfast is pretty basic, danishes and muffins in plastic wrappers, fruit loops or cherrios, and juice, coffee, or milk.  While I know you get what you pay for, an attempted at presentation would have been nice. I would not recommend this location for families.  It would have been fine if it was just myself.  What it did teach me though is stay in areas you are more comfortable with.More</t>
+  </si>
+  <si>
+    <t>PlainsWoman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d119927-r8454812-Hotel_39_Westminster-Westminster_California.html</t>
@@ -1902,43 +2121,47 @@
       <c r="A2" t="n">
         <v>24355</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>194524</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1956,54 +2179,58 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>24355</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>194525</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2025,54 +2252,58 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>24355</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>194526</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2094,54 +2325,58 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>24355</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>194527</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2163,56 +2398,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>24355</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>194528</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" t="s">
-        <v>74</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2234,56 +2473,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>24355</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>194529</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2305,56 +2548,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>24355</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>194530</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2376,56 +2623,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>24355</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>194531</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>104</v>
       </c>
-      <c r="L9" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>97</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2437,54 +2688,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>24355</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>194532</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2506,56 +2761,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>24355</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>122690</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2577,54 +2836,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>24355</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>194533</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2646,54 +2909,58 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>24355</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>194534</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2715,56 +2982,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>24355</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>194535</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2776,56 +3047,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>24355</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>194536</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2847,56 +3122,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>24355</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>194537</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2908,54 +3187,58 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>24355</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>194538</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2977,56 +3260,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>24355</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>194539</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3048,54 +3335,58 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>24355</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>39254</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3117,56 +3408,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>24355</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>194540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3186,50 +3481,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>24355</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>194541</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3253,48 +3552,52 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>24355</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>194542</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3318,50 +3621,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>24355</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>194543</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3385,35 +3692,39 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>24355</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>194544</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3421,10 +3732,10 @@
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3445,36 +3756,37 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24355</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>194545</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3482,10 +3794,10 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3506,51 +3818,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24355</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>194546</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3564,35 +3877,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>24355</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>9024</v>
+      </c>
+      <c r="C27" t="s">
+        <v>233</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3600,10 +3917,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3616,36 +3933,37 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>24355</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>194547</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3653,10 +3971,10 @@
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3677,36 +3995,37 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>24355</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>194548</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -3714,10 +4033,10 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -3738,36 +4057,37 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>24355</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>194549</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3775,10 +4095,10 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3799,51 +4119,52 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>24355</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>21017</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3867,50 +4188,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>24355</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>194550</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="K32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3932,56 +4257,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="X32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>24355</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>194551</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4003,54 +4332,58 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="X33" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="Y33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>24355</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>5388</v>
+      </c>
+      <c r="C34" t="s">
+        <v>277</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="J34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4072,56 +4405,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="X34" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="Y34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>24355</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>72188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4145,50 +4482,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>24355</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>21017</v>
+      </c>
+      <c r="C36" t="s">
+        <v>253</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4212,50 +4553,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>24355</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>194541</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="O37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4279,50 +4624,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>24355</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>194552</v>
+      </c>
+      <c r="C38" t="s">
+        <v>300</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="J38" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4342,35 +4691,39 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>24355</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>194553</v>
+      </c>
+      <c r="C39" t="s">
+        <v>307</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="J39" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4378,10 +4731,10 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="O39" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4402,51 +4755,52 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>24355</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>194554</v>
+      </c>
+      <c r="C40" t="s">
+        <v>312</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="J40" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="K40" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L40" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4470,35 +4824,39 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>24355</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>194555</v>
+      </c>
+      <c r="C41" t="s">
+        <v>318</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4506,10 +4864,10 @@
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="O41" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4530,42 +4888,43 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>24355</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>194556</v>
+      </c>
+      <c r="C42" t="s">
+        <v>323</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="J42" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -4582,41 +4941,45 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="X42" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="Y42" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>24355</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>20224</v>
+      </c>
+      <c r="C43" t="s">
+        <v>332</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="J43" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4624,10 +4987,10 @@
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="O43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4648,36 +5011,37 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>24355</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>62703</v>
+      </c>
+      <c r="C44" t="s">
+        <v>336</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="J44" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -4685,10 +5049,10 @@
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="O44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4709,36 +5073,37 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>24355</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>10872</v>
+      </c>
+      <c r="C45" t="s">
+        <v>341</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4746,10 +5111,10 @@
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="O45" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4770,49 +5135,50 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>24355</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>82076</v>
+      </c>
+      <c r="C46" t="s">
+        <v>345</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="J46" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4836,48 +5202,52 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>24355</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>194557</v>
+      </c>
+      <c r="C47" t="s">
+        <v>350</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="J47" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O47" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4899,54 +5269,58 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="X47" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="Y47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>24355</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C48" t="s">
+        <v>356</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="J48" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="O48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4968,54 +5342,58 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="X48" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="Y48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>24355</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>127273</v>
+      </c>
+      <c r="C49" t="s">
+        <v>361</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="J49" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="O49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5039,50 +5417,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>24355</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>33421</v>
+      </c>
+      <c r="C50" t="s">
+        <v>365</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="J50" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="K50" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="O50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5106,35 +5488,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>24355</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>6053</v>
+      </c>
+      <c r="C51" t="s">
+        <v>372</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="J51" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5142,10 +5528,10 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5166,51 +5552,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>24355</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>194558</v>
+      </c>
+      <c r="C52" t="s">
+        <v>377</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="J52" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="K52" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="O52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5232,54 +5619,58 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="X52" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="Y52" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>24355</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>194559</v>
+      </c>
+      <c r="C53" t="s">
+        <v>387</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="J53" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="O53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5301,56 +5692,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="X53" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="Y53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>24355</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>194560</v>
+      </c>
+      <c r="C54" t="s">
+        <v>392</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="J54" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="O54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5374,50 +5769,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>24355</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>194561</v>
+      </c>
+      <c r="C55" t="s">
+        <v>399</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="J55" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="K55" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="O55" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5441,35 +5840,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>24355</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>56456</v>
+      </c>
+      <c r="C56" t="s">
+        <v>405</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="J56" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5477,10 +5880,10 @@
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="O56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5501,49 +5904,50 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>24355</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>194562</v>
+      </c>
+      <c r="C57" t="s">
+        <v>409</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="J57" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="O57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5565,41 +5969,45 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="X57" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="Y57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>24355</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>8274</v>
+      </c>
+      <c r="C58" t="s">
+        <v>413</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="J58" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5607,10 +6015,10 @@
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="O58" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5631,36 +6039,37 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>24355</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>194563</v>
+      </c>
+      <c r="C59" t="s">
+        <v>416</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="J59" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5668,10 +6077,10 @@
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="O59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5692,51 +6101,52 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>24355</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C60" t="s">
+        <v>421</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="J60" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="K60" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="L60" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="O60" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5760,35 +6170,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>24355</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>194564</v>
+      </c>
+      <c r="C61" t="s">
+        <v>427</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="J61" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -5796,10 +6210,10 @@
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="O61" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5820,36 +6234,37 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>24355</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>24213</v>
+      </c>
+      <c r="C62" t="s">
+        <v>432</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="J62" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -5857,10 +6272,10 @@
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5881,36 +6296,37 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>24355</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>2193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>437</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>379</v>
+        <v>439</v>
       </c>
       <c r="J63" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -5918,10 +6334,10 @@
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -5942,51 +6358,52 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>24355</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>49766</v>
+      </c>
+      <c r="C64" t="s">
+        <v>440</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>381</v>
+        <v>442</v>
       </c>
       <c r="J64" t="s">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="K64" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6010,48 +6427,52 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>24355</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>10722</v>
+      </c>
+      <c r="C65" t="s">
+        <v>447</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="J65" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="O65" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6073,41 +6494,45 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="X65" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="Y65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>24355</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>3561</v>
+      </c>
+      <c r="C66" t="s">
+        <v>451</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="J66" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6115,10 +6540,10 @@
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="O66" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6139,36 +6564,37 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>24355</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>2179</v>
+      </c>
+      <c r="C67" t="s">
+        <v>454</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="J67" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6176,10 +6602,10 @@
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="O67" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6200,36 +6626,37 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>24355</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>11241</v>
+      </c>
+      <c r="C68" t="s">
+        <v>458</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="J68" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6237,10 +6664,10 @@
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="O68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6261,51 +6688,52 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>24355</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>194565</v>
+      </c>
+      <c r="C69" t="s">
+        <v>463</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="J69" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="K69" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="L69" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="O69" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6327,56 +6755,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="X69" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="Y69" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>24355</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>64314</v>
+      </c>
+      <c r="C70" t="s">
+        <v>471</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="J70" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="K70" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="L70" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
       <c r="O70" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6398,56 +6830,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="X70" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="Y70" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>24355</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>194566</v>
+      </c>
+      <c r="C71" t="s">
+        <v>479</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="J71" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="K71" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="L71" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="O71" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6471,50 +6907,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>24355</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>194567</v>
+      </c>
+      <c r="C72" t="s">
+        <v>486</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="J72" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="K72" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="L72" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="O72" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6538,50 +6978,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>24355</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>194568</v>
+      </c>
+      <c r="C73" t="s">
+        <v>494</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="J73" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="K73" t="s">
-        <v>428</v>
+        <v>498</v>
       </c>
       <c r="L73" t="s">
-        <v>429</v>
+        <v>499</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="O73" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -6603,56 +7047,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="X73" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="Y73" t="s">
-        <v>431</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>24355</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>194569</v>
+      </c>
+      <c r="C74" t="s">
+        <v>502</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="J74" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="K74" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="L74" t="s">
-        <v>436</v>
+        <v>507</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>437</v>
+        <v>508</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -6676,50 +7124,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>436</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>24355</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>36906</v>
+      </c>
+      <c r="C75" t="s">
+        <v>509</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="J75" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
       <c r="K75" t="s">
-        <v>441</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
       <c r="O75" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6743,50 +7195,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>444</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>24355</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>194570</v>
+      </c>
+      <c r="C76" t="s">
+        <v>517</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>445</v>
+        <v>518</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>446</v>
+        <v>519</v>
       </c>
       <c r="J76" t="s">
-        <v>447</v>
+        <v>520</v>
       </c>
       <c r="K76" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="L76" t="s">
-        <v>449</v>
+        <v>522</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="O76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -6810,7 +7266,7 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
